--- a/mental-arithmetic.xlsx
+++ b/mental-arithmetic.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhans\Documents\for-kids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\documents\home\小学\for-kids\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add" sheetId="1" r:id="rId1"/>
     <sheet name="multiply" sheetId="2" r:id="rId2"/>
+    <sheet name="mul-10s-10s" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="12">
   <si>
     <t>成绩：</t>
   </si>
@@ -64,12 +65,20 @@
     <t>以内因数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>÷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +205,14 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +295,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,11 +582,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="4.125" customWidth="1"/>
@@ -611,7 +631,7 @@
     <col min="42" max="42" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="8" customFormat="1" ht="20.25">
+    <row r="1" spans="1:41" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8">
         <f>B1</f>
         <v>20</v>
@@ -665,34 +685,34 @@
       <c r="AN1" s="3"/>
       <c r="AO1" s="2"/>
     </row>
-    <row r="2" spans="1:41" ht="24.95" customHeight="1">
+    <row r="2" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>A1</f>
         <v>20</v>
       </c>
       <c r="B2" s="5">
         <f ca="1">RANDBETWEEN(1,A2-1)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="str">
         <f t="shared" ref="C2:C11" ca="1" si="0">IF(RANDBETWEEN(0,1),"+","-")</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="D2" s="5">
         <f ca="1">IF(C2="-",RANDBETWEEN(1,B2),RANDBETWEEN(1,A2-B2))</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F11" ca="1" si="1">IF(C2="-",B2-D2,B2+D2)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5">
         <f ca="1">RANDBETWEEN(1,A2-1)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6" t="str">
         <f t="shared" ref="I2:I11" ca="1" si="2">IF(RANDBETWEEN(0,1),"+","-")</f>
@@ -700,34 +720,34 @@
       </c>
       <c r="J2" s="5">
         <f ca="1">IF(I2="-",RANDBETWEEN(1,H2),RANDBETWEEN(1,A2-H2))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ref="L2:L11" ca="1" si="3">IF(I2="-",H2-J2,H2+J2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5">
         <f ca="1">RANDBETWEEN(1,A2-1)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O2" s="6" t="str">
         <f t="shared" ref="O2:O11" ca="1" si="4">IF(RANDBETWEEN(0,1),"+","-")</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="P2" s="5">
         <f ca="1">IF(O2="-",RANDBETWEEN(1,N2),RANDBETWEEN(1,A2-N2))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="5">
         <f t="shared" ref="R2:R11" ca="1" si="5">IF(O2="-",N2-P2,N2+P2)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5">
@@ -736,11 +756,11 @@
       </c>
       <c r="U2" s="6" t="str">
         <f t="shared" ref="U2:U11" ca="1" si="6">IF(RANDBETWEEN(0,1),"+","-")</f>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="V2" s="5">
         <f ca="1">IF(U2="-",RANDBETWEEN(1,T2),RANDBETWEEN(1,A2-T2))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>1</v>
@@ -748,7 +768,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5">
         <f ca="1">RANDBETWEEN(1,A2-1)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="5" t="str">
         <f ca="1">IF(AF2,AG2,Y2)</f>
@@ -760,18 +780,18 @@
       </c>
       <c r="AB2" s="5">
         <f ca="1">IF(AF2,AC2,AG2)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AC2" s="5">
         <f ca="1">IF(AA2="-",RANDBETWEEN(1,Y2),RANDBETWEEN(1,A2-Y2))</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AD2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE2" s="5">
         <f t="shared" ref="AE2:AE11" ca="1" si="8">IF(AA2="-",Y2-AC2,Y2+AC2)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF2" s="5">
         <f t="shared" ref="AF2:AF11" ca="1" si="9">RANDBETWEEN(0,1)</f>
@@ -783,7 +803,7 @@
       <c r="AH2" s="5"/>
       <c r="AI2" s="5">
         <f ca="1">RANDBETWEEN(2,A2-1)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" s="6" t="str">
         <f t="shared" ref="AJ2:AJ11" ca="1" si="10">IF(RANDBETWEEN(0,1),"+","-")</f>
@@ -791,52 +811,52 @@
       </c>
       <c r="AK2" s="5">
         <f ca="1">IF(AJ2="-",RANDBETWEEN(1,AI2-1),RANDBETWEEN(1,A2-AI2))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL2" s="6" t="str">
         <f t="shared" ref="AL2:AL11" ca="1" si="11">IF(RANDBETWEEN(0,1),"+","-")</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="AM2" s="5">
         <f t="shared" ref="AM2:AM11" ca="1" si="12">IF(AJ2="-",AI2-AK2,AI2+AK2)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AN2" s="5">
         <f ca="1">IF(AL2="-",RANDBETWEEN(0,AM2),RANDBETWEEN(0,A2-AM2))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="24.95" customHeight="1">
+    <row r="3" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A22" si="13">A2</f>
         <v>20</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B22" ca="1" si="14">RANDBETWEEN(1,A3-1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D22" ca="1" si="15">IF(C3="-",RANDBETWEEN(1,B3),RANDBETWEEN(1,A3-B3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H22" ca="1" si="16">RANDBETWEEN(1,A3-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -844,7 +864,7 @@
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J22" ca="1" si="17">IF(I3="-",RANDBETWEEN(1,H3),RANDBETWEEN(1,A3-H3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>1</v>
@@ -856,35 +876,35 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5">
         <f t="shared" ref="N3:N22" ca="1" si="18">RANDBETWEEN(1,A3-1)</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="O3" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="P3" s="5">
         <f t="shared" ref="P3:P22" ca="1" si="19">IF(O3="-",RANDBETWEEN(1,N3),RANDBETWEEN(1,A3-N3))</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5">
         <f t="shared" ref="T3:T22" ca="1" si="20">RANDBETWEEN(1,A3-1)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U3" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="V3" s="5">
         <f t="shared" ref="V3:V22" ca="1" si="21">IF(U3="-",RANDBETWEEN(1,T3),RANDBETWEEN(1,A3-T3))</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>1</v>
@@ -892,11 +912,11 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5">
         <f t="shared" ref="Y3:Y22" ca="1" si="22">RANDBETWEEN(1,A3-1)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" ref="Z3:Z11" ca="1" si="23">IF(AF3,AG3,Y3)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AA3" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -915,7 +935,7 @@
       </c>
       <c r="AE3" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF3" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -927,80 +947,80 @@
       <c r="AH3" s="5"/>
       <c r="AI3" s="5">
         <f t="shared" ref="AI3:AI22" ca="1" si="26">RANDBETWEEN(2,A3-1)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AJ3" s="6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AK3" s="5">
         <f t="shared" ref="AK3:AK22" ca="1" si="27">IF(AJ3="-",RANDBETWEEN(1,AI3-1),RANDBETWEEN(1,A3-AI3))</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AM3" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AN3" s="5">
         <f t="shared" ref="AN3:AN22" ca="1" si="28">IF(AL3="-",RANDBETWEEN(0,AM3),RANDBETWEEN(0,A3-AM3))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="24.95" customHeight="1">
+    <row r="4" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O4" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1008,27 +1028,27 @@
       </c>
       <c r="P4" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R4" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U4" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="V4" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>1</v>
@@ -1036,34 +1056,34 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>11</v>
-      </c>
-      <c r="Z4" s="5" t="str">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="5">
         <f t="shared" ca="1" si="23"/>
-        <v>(    )</v>
+        <v>9</v>
       </c>
       <c r="AA4" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="AB4" s="5">
+        <v>-</v>
+      </c>
+      <c r="AB4" s="5" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>8</v>
+        <v>(    )</v>
       </c>
       <c r="AC4" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AF4" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>4</v>
@@ -1071,7 +1091,7 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ4" s="6" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -1079,72 +1099,72 @@
       </c>
       <c r="AK4" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL4" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AM4" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN4" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="24.95" customHeight="1">
+    <row r="5" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="O5" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1152,27 +1172,27 @@
       </c>
       <c r="P5" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R5" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="U5" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="V5" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5" s="7" t="s">
         <v>1</v>
@@ -1180,34 +1200,34 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>19</v>
-      </c>
-      <c r="Z5" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="5" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>19</v>
+        <v>(    )</v>
       </c>
       <c r="AA5" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>-</v>
       </c>
-      <c r="AB5" s="5" t="str">
+      <c r="AB5" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>(    )</v>
+        <v>5</v>
       </c>
       <c r="AC5" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE5" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>4</v>
@@ -1215,7 +1235,7 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AJ5" s="6" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -1223,7 +1243,7 @@
       </c>
       <c r="AK5" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL5" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1235,40 +1255,40 @@
       </c>
       <c r="AN5" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="24.95" customHeight="1">
+    <row r="6" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1276,19 +1296,19 @@
       </c>
       <c r="J6" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O6" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1296,19 +1316,19 @@
       </c>
       <c r="P6" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U6" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1316,7 +1336,7 @@
       </c>
       <c r="V6" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>1</v>
@@ -1324,34 +1344,34 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="Z6" s="5">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="5" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>(    )</v>
       </c>
       <c r="AA6" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>+</v>
       </c>
-      <c r="AB6" s="5" t="str">
+      <c r="AB6" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>(    )</v>
+        <v>6</v>
       </c>
       <c r="AC6" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="5" t="s">
         <v>4</v>
@@ -1359,15 +1379,15 @@
       <c r="AH6" s="5"/>
       <c r="AI6" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ6" s="6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="AK6" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AL6" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1375,24 +1395,24 @@
       </c>
       <c r="AM6" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AN6" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AO6" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="24.95" customHeight="1">
+    <row r="7" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1400,19 +1420,19 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1420,19 +1440,19 @@
       </c>
       <c r="J7" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O7" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1440,19 +1460,19 @@
       </c>
       <c r="P7" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U7" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1470,32 +1490,32 @@
         <f t="shared" ca="1" si="22"/>
         <v>4</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="5" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>(    )</v>
       </c>
       <c r="AA7" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="AB7" s="5" t="str">
+        <v>-</v>
+      </c>
+      <c r="AB7" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>(    )</v>
+        <v>4</v>
       </c>
       <c r="AC7" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AD7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE7" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="5" t="s">
         <v>4</v>
@@ -1503,40 +1523,40 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AJ7" s="6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="AK7" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL7" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AM7" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN7" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="24.95" customHeight="1">
+    <row r="8" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1544,19 +1564,19 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1564,7 +1584,7 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>1</v>
@@ -1576,7 +1596,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O8" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1591,20 +1611,20 @@
       </c>
       <c r="R8" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U8" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="V8" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W8" s="7" t="s">
         <v>1</v>
@@ -1612,23 +1632,23 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="Z8" s="5">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="5" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>7</v>
+        <v>(    )</v>
       </c>
       <c r="AA8" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="AB8" s="5" t="str">
+        <v>-</v>
+      </c>
+      <c r="AB8" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>(    )</v>
+        <v>10</v>
       </c>
       <c r="AC8" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AD8" s="7" t="s">
         <v>1</v>
@@ -1639,7 +1659,7 @@
       </c>
       <c r="AF8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>4</v>
@@ -1651,36 +1671,36 @@
       </c>
       <c r="AJ8" s="6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AK8" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AL8" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AM8" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AN8" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AO8" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="24.95" customHeight="1">
+    <row r="9" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1695,52 +1715,52 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O9" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="U9" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1748,7 +1768,7 @@
       </c>
       <c r="V9" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="W9" s="7" t="s">
         <v>1</v>
@@ -1756,34 +1776,34 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>15</v>
-      </c>
-      <c r="Z9" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="5">
         <f t="shared" ca="1" si="23"/>
-        <v>(    )</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>+</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" s="5" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>(    )</v>
       </c>
       <c r="AC9" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AD9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE9" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="5" t="s">
         <v>4</v>
@@ -1791,15 +1811,15 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ9" s="6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="AK9" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL9" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1807,24 +1827,24 @@
       </c>
       <c r="AM9" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AN9" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO9" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="24.95" customHeight="1">
+    <row r="10" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1832,7 +1852,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>1</v>
@@ -1844,7 +1864,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1852,14 +1872,14 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5">
@@ -1868,23 +1888,23 @@
       </c>
       <c r="O10" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1892,7 +1912,7 @@
       </c>
       <c r="V10" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" s="7" t="s">
         <v>1</v>
@@ -1900,34 +1920,34 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="Z10" s="5" t="str">
+        <v>17</v>
+      </c>
+      <c r="Z10" s="5">
         <f t="shared" ca="1" si="23"/>
-        <v>(    )</v>
+        <v>17</v>
       </c>
       <c r="AA10" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="AB10" s="5">
+        <v>-</v>
+      </c>
+      <c r="AB10" s="5" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>(    )</v>
       </c>
       <c r="AC10" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AD10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE10" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="5" t="s">
         <v>4</v>
@@ -1935,55 +1955,55 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AJ10" s="6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AK10" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AM10" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AN10" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="24.95" customHeight="1">
+    <row r="11" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5">
@@ -1996,14 +2016,14 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5">
@@ -2012,7 +2032,7 @@
       </c>
       <c r="O11" s="6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" ca="1" si="19"/>
@@ -2023,20 +2043,20 @@
       </c>
       <c r="R11" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U11" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="V11" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W11" s="7" t="s">
         <v>1</v>
@@ -2044,34 +2064,34 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>17</v>
-      </c>
-      <c r="Z11" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="5">
         <f t="shared" ca="1" si="23"/>
-        <v>(    )</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="6" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>-</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="5" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>(    )</v>
       </c>
       <c r="AC11" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE11" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="5" t="s">
         <v>3</v>
@@ -2079,7 +2099,7 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ11" s="6" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -2087,7 +2107,7 @@
       </c>
       <c r="AK11" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL11" s="6" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -2095,17 +2115,17 @@
       </c>
       <c r="AM11" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN11" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO11" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" s="10" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:41" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <f t="shared" si="13"/>
         <v>20</v>
@@ -2151,38 +2171,38 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="24.95" customHeight="1">
+    <row r="13" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="6" t="str">
         <f t="shared" ref="C13:C22" ca="1" si="29">IF(RANDBETWEEN(0,1),"+","-")</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ref="F13:F22" ca="1" si="30">IF(C13="-",B13-D13,B13+D13)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ref="I13:I22" ca="1" si="31">IF(RANDBETWEEN(0,1),"+","-")</f>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="17"/>
@@ -2193,16 +2213,16 @@
       </c>
       <c r="L13" s="5">
         <f t="shared" ref="L13:L22" ca="1" si="32">IF(I13="-",H13-J13,H13+J13)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O13" s="6" t="str">
         <f t="shared" ref="O13:O22" ca="1" si="33">IF(RANDBETWEEN(0,1),"+","-")</f>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" ca="1" si="19"/>
@@ -2213,12 +2233,12 @@
       </c>
       <c r="R13" s="5">
         <f t="shared" ref="R13:R22" ca="1" si="34">IF(O13="-",N13-P13,N13+P13)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U13" s="6" t="str">
         <f t="shared" ref="U13:U22" ca="1" si="35">IF(RANDBETWEEN(0,1),"+","-")</f>
@@ -2226,7 +2246,7 @@
       </c>
       <c r="V13" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="W13" s="7" t="s">
         <v>1</v>
@@ -2234,34 +2254,34 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>12</v>
-      </c>
-      <c r="Z13" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="5" t="str">
         <f ca="1">IF(AF13,AG13,Y13)</f>
-        <v>12</v>
+        <v>(    )</v>
       </c>
       <c r="AA13" s="6" t="str">
         <f t="shared" ref="AA13:AA22" ca="1" si="36">IF(RANDBETWEEN(0,1),"+","-")</f>
         <v>+</v>
       </c>
-      <c r="AB13" s="5" t="str">
+      <c r="AB13" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>(    )</v>
+        <v>17</v>
       </c>
       <c r="AC13" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AD13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE13" s="5">
         <f t="shared" ref="AE13:AE22" ca="1" si="37">IF(AA13="-",Y13-AC13,Y13+AC13)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF13" s="5">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="5" t="s">
         <v>5</v>
@@ -2269,7 +2289,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AJ13" s="6" t="str">
         <f t="shared" ref="AJ13:AJ22" ca="1" si="38">IF(RANDBETWEEN(0,1),"+","-")</f>
@@ -2285,7 +2305,7 @@
       </c>
       <c r="AM13" s="5">
         <f t="shared" ref="AM13:AM22" ca="1" si="40">IF(AJ13="-",AI13-AK13,AI13+AK13)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="5">
         <f t="shared" ca="1" si="28"/>
@@ -2295,14 +2315,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="24.95" customHeight="1">
+    <row r="14" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -2310,19 +2330,19 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="30"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -2330,39 +2350,39 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" ca="1" si="32"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O14" s="6" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U14" s="6" t="str">
         <f t="shared" ca="1" si="35"/>
@@ -2370,7 +2390,7 @@
       </c>
       <c r="V14" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="W14" s="7" t="s">
         <v>1</v>
@@ -2378,19 +2398,19 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>17</v>
-      </c>
-      <c r="Z14" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="5" t="str">
         <f t="shared" ref="Z14:Z22" ca="1" si="41">IF(AF14,AG14,Y14)</f>
-        <v>17</v>
+        <v>(    )</v>
       </c>
       <c r="AA14" s="6" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v>+</v>
-      </c>
-      <c r="AB14" s="5" t="str">
+        <v>-</v>
+      </c>
+      <c r="AB14" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>(    )</v>
+        <v>2</v>
       </c>
       <c r="AC14" s="5">
         <f t="shared" ca="1" si="25"/>
@@ -2401,11 +2421,11 @@
       </c>
       <c r="AE14" s="5">
         <f t="shared" ca="1" si="37"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="5">
         <f t="shared" ref="AF14:AF22" ca="1" si="42">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>5</v>
@@ -2413,7 +2433,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ14" s="6" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -2421,32 +2441,32 @@
       </c>
       <c r="AK14" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL14" s="6" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AM14" s="5">
         <f t="shared" ca="1" si="40"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO14" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="24.95" customHeight="1">
+    <row r="15" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="6" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -2454,14 +2474,14 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5">
@@ -2474,19 +2494,19 @@
       </c>
       <c r="J15" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" ca="1" si="32"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O15" s="6" t="str">
         <f t="shared" ca="1" si="33"/>
@@ -2494,27 +2514,27 @@
       </c>
       <c r="P15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="U15" s="6" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="V15" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>1</v>
@@ -2522,7 +2542,7 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Z15" s="5" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -2534,18 +2554,18 @@
       </c>
       <c r="AB15" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE15" s="5">
         <f t="shared" ca="1" si="37"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AF15" s="5">
         <f t="shared" ca="1" si="42"/>
@@ -2557,15 +2577,15 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ15" s="6" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AK15" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL15" s="6" t="str">
         <f t="shared" ca="1" si="39"/>
@@ -2573,48 +2593,48 @@
       </c>
       <c r="AM15" s="5">
         <f t="shared" ca="1" si="40"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AN15" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AO15" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="24.95" customHeight="1">
+    <row r="16" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C16" s="6" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="30"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" ca="1" si="17"/>
@@ -2625,12 +2645,12 @@
       </c>
       <c r="L16" s="5">
         <f t="shared" ca="1" si="32"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O16" s="6" t="str">
         <f t="shared" ca="1" si="33"/>
@@ -2638,19 +2658,19 @@
       </c>
       <c r="P16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U16" s="6" t="str">
         <f t="shared" ca="1" si="35"/>
@@ -2658,7 +2678,7 @@
       </c>
       <c r="V16" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W16" s="7" t="s">
         <v>1</v>
@@ -2666,7 +2686,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="5" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -2678,18 +2698,18 @@
       </c>
       <c r="AB16" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC16" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE16" s="5">
         <f t="shared" ca="1" si="37"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="5">
         <f t="shared" ca="1" si="42"/>
@@ -2709,7 +2729,7 @@
       </c>
       <c r="AK16" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL16" s="6" t="str">
         <f t="shared" ca="1" si="39"/>
@@ -2717,84 +2737,84 @@
       </c>
       <c r="AM16" s="5">
         <f t="shared" ca="1" si="40"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN16" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="24.95" customHeight="1">
+    <row r="17" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C17" s="6" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="30"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O17" s="6" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="U17" s="6" t="str">
         <f t="shared" ca="1" si="35"/>
@@ -2802,7 +2822,7 @@
       </c>
       <c r="V17" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W17" s="7" t="s">
         <v>1</v>
@@ -2810,7 +2830,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z17" s="5" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -2822,18 +2842,18 @@
       </c>
       <c r="AB17" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC17" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE17" s="5">
         <f t="shared" ca="1" si="37"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF17" s="5">
         <f t="shared" ca="1" si="42"/>
@@ -2845,7 +2865,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ17" s="6" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -2853,7 +2873,7 @@
       </c>
       <c r="AK17" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AL17" s="6" t="str">
         <f t="shared" ca="1" si="39"/>
@@ -2861,28 +2881,28 @@
       </c>
       <c r="AM17" s="5">
         <f t="shared" ca="1" si="40"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AN17" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="24.95" customHeight="1">
+    <row r="18" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C18" s="6" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" ca="1" si="15"/>
@@ -2893,12 +2913,12 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="30"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -2906,7 +2926,7 @@
       </c>
       <c r="J18" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>1</v>
@@ -2918,7 +2938,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O18" s="6" t="str">
         <f t="shared" ca="1" si="33"/>
@@ -2926,27 +2946,27 @@
       </c>
       <c r="P18" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U18" s="6" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="V18" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>1</v>
@@ -2954,34 +2974,34 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>15</v>
-      </c>
-      <c r="Z18" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="5">
         <f t="shared" ca="1" si="41"/>
-        <v>(    )</v>
+        <v>2</v>
       </c>
       <c r="AA18" s="6" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v>+</v>
-      </c>
-      <c r="AB18" s="5">
+        <v>-</v>
+      </c>
+      <c r="AB18" s="5" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>(    )</v>
       </c>
       <c r="AC18" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE18" s="5">
         <f t="shared" ca="1" si="37"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="5">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="5" t="s">
         <v>5</v>
@@ -2989,15 +3009,15 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ18" s="6" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="AK18" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AL18" s="6" t="str">
         <f t="shared" ca="1" si="39"/>
@@ -3005,64 +3025,64 @@
       </c>
       <c r="AM18" s="5">
         <f t="shared" ca="1" si="40"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AN18" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AO18" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="24.95" customHeight="1">
+    <row r="19" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C19" s="6" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="30"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O19" s="6" t="str">
         <f t="shared" ca="1" si="33"/>
@@ -3070,7 +3090,7 @@
       </c>
       <c r="P19" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>1</v>
@@ -3082,7 +3102,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="U19" s="6" t="str">
         <f t="shared" ca="1" si="35"/>
@@ -3090,7 +3110,7 @@
       </c>
       <c r="V19" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>1</v>
@@ -3098,7 +3118,7 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Z19" s="5" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -3110,18 +3130,18 @@
       </c>
       <c r="AB19" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE19" s="5">
         <f t="shared" ca="1" si="37"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF19" s="5">
         <f t="shared" ca="1" si="42"/>
@@ -3133,15 +3153,15 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ19" s="6" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="AK19" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="6" t="str">
         <f t="shared" ca="1" si="39"/>
@@ -3149,44 +3169,44 @@
       </c>
       <c r="AM19" s="5">
         <f t="shared" ca="1" si="40"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="24.95" customHeight="1">
+    <row r="20" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="30"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -3194,47 +3214,47 @@
       </c>
       <c r="J20" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" ca="1" si="32"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O20" s="6" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="P20" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="U20" s="6" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="V20" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W20" s="7" t="s">
         <v>1</v>
@@ -3242,7 +3262,7 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Z20" s="5" t="str">
         <f t="shared" ca="1" si="41"/>
@@ -3254,11 +3274,11 @@
       </c>
       <c r="AB20" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AC20" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AD20" s="7" t="s">
         <v>1</v>
@@ -3277,40 +3297,40 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ20" s="6" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="AK20" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL20" s="6" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="AM20" s="5">
         <f t="shared" ca="1" si="40"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AN20" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AO20" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="24.95" customHeight="1">
+    <row r="21" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="6" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -3318,39 +3338,39 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="30"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" ca="1" si="32"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O21" s="6" t="str">
         <f t="shared" ca="1" si="33"/>
@@ -3358,27 +3378,27 @@
       </c>
       <c r="P21" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="U21" s="6" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="V21" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W21" s="7" t="s">
         <v>1</v>
@@ -3386,11 +3406,11 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="5">
         <f t="shared" ca="1" si="41"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="6" t="str">
         <f t="shared" ca="1" si="36"/>
@@ -3409,7 +3429,7 @@
       </c>
       <c r="AE21" s="5">
         <f t="shared" ca="1" si="37"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="5">
         <f t="shared" ca="1" si="42"/>
@@ -3421,7 +3441,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ21" s="6" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -3429,25 +3449,25 @@
       </c>
       <c r="AK21" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AL21" s="6" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AM21" s="5">
         <f t="shared" ca="1" si="40"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN21" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AO21" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="24.95" customHeight="1">
+    <row r="22" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="13"/>
         <v>20</v>
@@ -3462,19 +3482,19 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="30"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I22" s="6" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -3482,43 +3502,43 @@
       </c>
       <c r="J22" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" ca="1" si="32"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O22" s="6" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>1</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="U22" s="6" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="V22" s="5">
         <f t="shared" ca="1" si="21"/>
@@ -3530,15 +3550,15 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="5">
         <f t="shared" ca="1" si="41"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="6" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AB22" s="5" t="str">
         <f t="shared" ca="1" si="24"/>
@@ -3546,14 +3566,14 @@
       </c>
       <c r="AC22" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AD22" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AE22" s="5">
         <f t="shared" ca="1" si="37"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AF22" s="5">
         <f t="shared" ca="1" si="42"/>
@@ -3565,27 +3585,27 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="5">
         <f t="shared" ca="1" si="26"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ22" s="6" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AK22" s="5">
         <f t="shared" ca="1" si="27"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AL22" s="6" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="AM22" s="5">
         <f t="shared" ca="1" si="40"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AN22" s="5">
         <f t="shared" ca="1" si="28"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="7" t="s">
         <v>1</v>
@@ -3603,10 +3623,10 @@
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AO14" sqref="AO14"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.125" style="13" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="11" customWidth="1"/>
@@ -3645,7 +3665,7 @@
     <col min="39" max="40" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="13">
         <f>B1</f>
         <v>10</v>
@@ -3717,37 +3737,37 @@
       <c r="AM1" s="13"/>
       <c r="AN1" s="13"/>
     </row>
-    <row r="2" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <f>A1</f>
         <v>10</v>
       </c>
       <c r="B2" s="16">
         <f ca="1">IF(C2,G2,E2*G2)</f>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C2" s="16">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="17" t="str">
         <f ca="1">IF(C2,"×","÷")</f>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="E2" s="16">
         <f ca="1">RANDBETWEEN(1,A2)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="15">
         <f ca="1">RANDBETWEEN(1,A2)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" s="15">
         <f ca="1">IF(C2,E2*G2,G2)</f>
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="I2" s="15">
         <f>I1</f>
@@ -3755,7 +3775,7 @@
       </c>
       <c r="J2" s="16">
         <f ca="1">IF(K2,O2,M2*O2)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K2" s="16">
         <f ca="1">RANDBETWEEN(0,1)</f>
@@ -3767,18 +3787,18 @@
       </c>
       <c r="M2" s="16">
         <f ca="1">RANDBETWEEN(1,I2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="15">
         <f ca="1">RANDBETWEEN(1,I2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="15">
         <f ca="1">IF(K2,M2*O2,O2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="15">
         <f>Q1</f>
@@ -3786,30 +3806,30 @@
       </c>
       <c r="R2" s="16">
         <f ca="1">IF(S2,W2,U2*W2)</f>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="S2" s="16">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="17" t="str">
         <f ca="1">IF(S2,"×","÷")</f>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="U2" s="16">
         <f ca="1">RANDBETWEEN(1,Q2)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W2" s="15">
         <f ca="1">RANDBETWEEN(1,Q2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X2" s="15">
         <f ca="1">IF(S2,U2*W2,W2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="15">
         <f>Y1</f>
@@ -3817,15 +3837,15 @@
       </c>
       <c r="Z2" s="16">
         <f ca="1">IF(AA2,AE2,AC2*AE2)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="16">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="17" t="str">
         <f ca="1">IF(AA2,"×","÷")</f>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="AC2" s="16">
         <f ca="1">RANDBETWEEN(1,Y2)</f>
@@ -3836,11 +3856,11 @@
       </c>
       <c r="AE2" s="15">
         <f ca="1">RANDBETWEEN(1,Y2)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="15">
         <f ca="1">IF(AA2,AC2*AE2,AE2)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="15">
         <f>AG1</f>
@@ -3848,7 +3868,7 @@
       </c>
       <c r="AH2" s="16">
         <f ca="1">IF(AI2,AM2,AK2*AM2)</f>
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="AI2" s="16">
         <f ca="1">RANDBETWEEN(0,1)</f>
@@ -3860,51 +3880,51 @@
       </c>
       <c r="AK2" s="16">
         <f ca="1">RANDBETWEEN(1,AG2)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AL2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM2" s="15">
         <f ca="1">RANDBETWEEN(1,AG2)</f>
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="AN2" s="15">
         <f ca="1">IF(AI2,AK2*AM2,AM2)</f>
-        <v>520</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="3" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <f t="shared" ref="A3:A22" si="0">A2</f>
         <v>10</v>
       </c>
       <c r="B3" s="16">
         <f t="shared" ref="B3:B22" ca="1" si="1">IF(C3,G3,E3*G3)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="16">
         <f t="shared" ref="C3:C22" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="17" t="str">
         <f t="shared" ref="D3:D22" ca="1" si="3">IF(C3,"×","÷")</f>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="E3" s="16">
         <f t="shared" ref="E3:E22" ca="1" si="4">RANDBETWEEN(1,A3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" ref="G3:G22" ca="1" si="5">RANDBETWEEN(1,A3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" ref="H3:H22" ca="1" si="6">IF(C3,E3*G3,G3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" ref="I3:I22" si="7">I2</f>
@@ -3923,19 +3943,19 @@
         <v>×</v>
       </c>
       <c r="M3" s="16">
-        <f t="shared" ref="M3:M22" ca="1" si="11">RANDBETWEEN(1,I3)</f>
-        <v>8</v>
+        <f t="shared" ref="M3:M11" ca="1" si="11">RANDBETWEEN(1,I3)</f>
+        <v>1</v>
       </c>
       <c r="N3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="15">
-        <f t="shared" ref="O3:O22" ca="1" si="12">RANDBETWEEN(1,I3)</f>
+        <f t="shared" ref="O3:O11" ca="1" si="12">RANDBETWEEN(1,I3)</f>
         <v>7</v>
       </c>
       <c r="P3" s="15">
         <f t="shared" ref="P3:P11" ca="1" si="13">IF(K3,M3*O3,O3)</f>
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="15">
         <f t="shared" ref="Q3:Q22" si="14">Q2</f>
@@ -3943,30 +3963,30 @@
       </c>
       <c r="R3" s="16">
         <f t="shared" ref="R3:R11" ca="1" si="15">IF(S3,W3,U3*W3)</f>
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="S3" s="16">
         <f t="shared" ref="S3:S22" ca="1" si="16">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="17" t="str">
         <f t="shared" ref="T3:T22" ca="1" si="17">IF(S3,"×","÷")</f>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="U3" s="16">
-        <f t="shared" ref="U3:U22" ca="1" si="18">RANDBETWEEN(1,Q3)</f>
-        <v>9</v>
+        <f t="shared" ref="U3:U11" ca="1" si="18">RANDBETWEEN(1,Q3)</f>
+        <v>7</v>
       </c>
       <c r="V3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W3" s="15">
-        <f t="shared" ref="W3:W22" ca="1" si="19">RANDBETWEEN(1,Q3)</f>
-        <v>9</v>
+        <f t="shared" ref="W3:W11" ca="1" si="19">RANDBETWEEN(1,Q3)</f>
+        <v>8</v>
       </c>
       <c r="X3" s="15">
         <f t="shared" ref="X3:X11" ca="1" si="20">IF(S3,U3*W3,W3)</f>
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="Y3" s="15">
         <f t="shared" ref="Y3:Y22" si="21">Y2</f>
@@ -3974,30 +3994,30 @@
       </c>
       <c r="Z3" s="16">
         <f t="shared" ref="Z3:Z11" ca="1" si="22">IF(AA3,AE3,AC3*AE3)</f>
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="AA3" s="16">
         <f t="shared" ref="AA3:AA22" ca="1" si="23">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="17" t="str">
         <f t="shared" ref="AB3:AB22" ca="1" si="24">IF(AA3,"×","÷")</f>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AC3" s="16">
         <f t="shared" ref="AC3:AC11" ca="1" si="25">RANDBETWEEN(1,Y3)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AD3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE3" s="15">
         <f t="shared" ref="AE3:AE11" ca="1" si="26">RANDBETWEEN(1,Y3)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF3" s="15">
         <f t="shared" ref="AF3:AF11" ca="1" si="27">IF(AA3,AC3*AE3,AE3)</f>
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="AG3" s="15">
         <f t="shared" ref="AG3:AG22" si="28">AG2</f>
@@ -4005,7 +4025,7 @@
       </c>
       <c r="AH3" s="16">
         <f t="shared" ref="AH3:AH11" ca="1" si="29">IF(AI3,AM3,AK3*AM3)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI3" s="16">
         <f t="shared" ref="AI3:AI22" ca="1" si="30">RANDBETWEEN(0,1)</f>
@@ -4016,29 +4036,29 @@
         <v>×</v>
       </c>
       <c r="AK3" s="16">
-        <f t="shared" ref="AK3:AK22" ca="1" si="32">RANDBETWEEN(1,AG3)</f>
-        <v>15</v>
+        <f t="shared" ref="AK3:AK11" ca="1" si="32">RANDBETWEEN(1,AG3)</f>
+        <v>16</v>
       </c>
       <c r="AL3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM3" s="15">
-        <f t="shared" ref="AM3:AM22" ca="1" si="33">RANDBETWEEN(1,AG3)</f>
-        <v>5</v>
+        <f t="shared" ref="AM3:AM11" ca="1" si="33">RANDBETWEEN(1,AG3)</f>
+        <v>2</v>
       </c>
       <c r="AN3" s="15">
         <f t="shared" ref="AN3:AN11" ca="1" si="34">IF(AI3,AK3*AM3,AM3)</f>
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B4" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C4" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -4057,11 +4077,11 @@
       </c>
       <c r="G4" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="7"/>
@@ -4069,7 +4089,7 @@
       </c>
       <c r="J4" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -4081,18 +4101,18 @@
       </c>
       <c r="M4" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O4" s="15">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P4" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="15">
         <f t="shared" si="14"/>
@@ -4100,7 +4120,7 @@
       </c>
       <c r="R4" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" ca="1" si="16"/>
@@ -4112,18 +4132,18 @@
       </c>
       <c r="U4" s="16">
         <f t="shared" ca="1" si="18"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W4" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X4" s="15">
         <f t="shared" ca="1" si="20"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="15">
         <f t="shared" si="21"/>
@@ -4131,7 +4151,7 @@
       </c>
       <c r="Z4" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -4143,18 +4163,18 @@
       </c>
       <c r="AC4" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AD4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE4" s="15">
         <f t="shared" ca="1" si="26"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="15">
         <f t="shared" ca="1" si="27"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AG4" s="15">
         <f t="shared" si="28"/>
@@ -4162,40 +4182,40 @@
       </c>
       <c r="AH4" s="16">
         <f t="shared" ca="1" si="29"/>
-        <v>13</v>
+        <v>598</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="17" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AK4" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AL4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM4" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AN4" s="15">
         <f t="shared" ca="1" si="34"/>
-        <v>156</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C5" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -4214,11 +4234,11 @@
       </c>
       <c r="G5" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="7"/>
@@ -4226,7 +4246,7 @@
       </c>
       <c r="J5" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K5" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -4238,7 +4258,7 @@
       </c>
       <c r="M5" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>7</v>
@@ -4257,30 +4277,30 @@
       </c>
       <c r="R5" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S5" s="16">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="U5" s="16">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W5" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X5" s="15">
         <f t="shared" ca="1" si="20"/>
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="15">
         <f t="shared" si="21"/>
@@ -4288,7 +4308,7 @@
       </c>
       <c r="Z5" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -4300,18 +4320,18 @@
       </c>
       <c r="AC5" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE5" s="15">
         <f t="shared" ca="1" si="26"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="15">
         <f t="shared" ca="1" si="27"/>
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="AG5" s="15">
         <f t="shared" si="28"/>
@@ -4319,40 +4339,40 @@
       </c>
       <c r="AH5" s="16">
         <f t="shared" ca="1" si="29"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI5" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="17" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="AK5" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM5" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AN5" s="15">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C6" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -4364,7 +4384,7 @@
       </c>
       <c r="E6" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>7</v>
@@ -4383,30 +4403,30 @@
       </c>
       <c r="J6" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K6" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="M6" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="15">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P6" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="15">
         <f t="shared" si="14"/>
@@ -4414,15 +4434,15 @@
       </c>
       <c r="R6" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="S6" s="16">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="U6" s="16">
         <f t="shared" ca="1" si="18"/>
@@ -4433,7 +4453,7 @@
       </c>
       <c r="W6" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X6" s="15">
         <f t="shared" ca="1" si="20"/>
@@ -4445,30 +4465,30 @@
       </c>
       <c r="Z6" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="AA6" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="AC6" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE6" s="15">
         <f t="shared" ca="1" si="26"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF6" s="15">
         <f t="shared" ca="1" si="27"/>
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="AG6" s="15">
         <f t="shared" si="28"/>
@@ -4476,33 +4496,33 @@
       </c>
       <c r="AH6" s="16">
         <f t="shared" ca="1" si="29"/>
-        <v>361</v>
+        <v>23</v>
       </c>
       <c r="AI6" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="17" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="AK6" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AL6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM6" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AN6" s="15">
         <f t="shared" ca="1" si="34"/>
-        <v>19</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4521,7 +4541,7 @@
       </c>
       <c r="E7" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>7</v>
@@ -4532,7 +4552,7 @@
       </c>
       <c r="H7" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="7"/>
@@ -4540,7 +4560,7 @@
       </c>
       <c r="J7" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K7" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -4552,18 +4572,18 @@
       </c>
       <c r="M7" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O7" s="15">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P7" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="15">
         <f t="shared" si="14"/>
@@ -4571,30 +4591,30 @@
       </c>
       <c r="R7" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="S7" s="16">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W7" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X7" s="15">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="15">
         <f t="shared" si="21"/>
@@ -4602,7 +4622,7 @@
       </c>
       <c r="Z7" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AA7" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -4614,18 +4634,18 @@
       </c>
       <c r="AC7" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE7" s="15">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AF7" s="15">
         <f t="shared" ca="1" si="27"/>
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="AG7" s="15">
         <f t="shared" si="28"/>
@@ -4633,63 +4653,63 @@
       </c>
       <c r="AH7" s="16">
         <f t="shared" ca="1" si="29"/>
-        <v>324</v>
+        <v>29</v>
       </c>
       <c r="AI7" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="17" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="AK7" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM7" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN7" s="15">
         <f t="shared" ca="1" si="34"/>
-        <v>27</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="E8" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="7"/>
@@ -4697,26 +4717,26 @@
       </c>
       <c r="J8" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="K8" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="M8" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P8" s="15">
         <f t="shared" ca="1" si="13"/>
@@ -4728,30 +4748,30 @@
       </c>
       <c r="R8" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="S8" s="16">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="U8" s="16">
         <f t="shared" ca="1" si="18"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W8" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X8" s="15">
         <f t="shared" ca="1" si="20"/>
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="Y8" s="15">
         <f t="shared" si="21"/>
@@ -4759,30 +4779,30 @@
       </c>
       <c r="Z8" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AC8" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE8" s="15">
         <f t="shared" ca="1" si="26"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="15">
         <f t="shared" ca="1" si="27"/>
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="15">
         <f t="shared" si="28"/>
@@ -4790,63 +4810,63 @@
       </c>
       <c r="AH8" s="16">
         <f t="shared" ca="1" si="29"/>
-        <v>14</v>
+        <v>483</v>
       </c>
       <c r="AI8" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="17" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AK8" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AL8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM8" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AN8" s="15">
         <f t="shared" ca="1" si="34"/>
-        <v>154</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="7"/>
@@ -4854,7 +4874,7 @@
       </c>
       <c r="J9" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -4866,18 +4886,18 @@
       </c>
       <c r="M9" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="15">
         <f t="shared" si="14"/>
@@ -4897,18 +4917,18 @@
       </c>
       <c r="U9" s="16">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W9" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X9" s="15">
         <f t="shared" ca="1" si="20"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y9" s="15">
         <f t="shared" si="21"/>
@@ -4916,7 +4936,7 @@
       </c>
       <c r="Z9" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AA9" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -4928,18 +4948,18 @@
       </c>
       <c r="AC9" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE9" s="15">
         <f t="shared" ca="1" si="26"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AF9" s="15">
         <f t="shared" ca="1" si="27"/>
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AG9" s="15">
         <f t="shared" si="28"/>
@@ -4947,63 +4967,63 @@
       </c>
       <c r="AH9" s="16">
         <f t="shared" ca="1" si="29"/>
-        <v>450</v>
+        <v>13</v>
       </c>
       <c r="AI9" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="17" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="AK9" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AL9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM9" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AN9" s="15">
         <f t="shared" ca="1" si="34"/>
-        <v>30</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C10" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="E10" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" si="7"/>
@@ -5011,30 +5031,30 @@
       </c>
       <c r="J10" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K10" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="M10" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P10" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="15">
         <f t="shared" si="14"/>
@@ -5042,7 +5062,7 @@
       </c>
       <c r="R10" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="S10" s="16">
         <f t="shared" ca="1" si="16"/>
@@ -5054,18 +5074,18 @@
       </c>
       <c r="U10" s="16">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W10" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X10" s="15">
         <f t="shared" ca="1" si="20"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="15">
         <f t="shared" si="21"/>
@@ -5073,19 +5093,19 @@
       </c>
       <c r="Z10" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="AA10" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AC10" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD10" s="18" t="s">
         <v>7</v>
@@ -5096,7 +5116,7 @@
       </c>
       <c r="AF10" s="15">
         <f t="shared" ca="1" si="27"/>
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="AG10" s="15">
         <f t="shared" si="28"/>
@@ -5104,40 +5124,40 @@
       </c>
       <c r="AH10" s="16">
         <f t="shared" ca="1" si="29"/>
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AI10" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="17" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="AK10" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AL10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM10" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AN10" s="15">
         <f t="shared" ca="1" si="34"/>
-        <v>8</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -5149,18 +5169,18 @@
       </c>
       <c r="E11" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" si="7"/>
@@ -5168,30 +5188,30 @@
       </c>
       <c r="J11" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K11" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="M11" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P11" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="15">
         <f t="shared" si="14"/>
@@ -5199,30 +5219,30 @@
       </c>
       <c r="R11" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="S11" s="16">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="U11" s="16">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W11" s="15">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X11" s="15">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="Y11" s="15">
         <f t="shared" si="21"/>
@@ -5230,7 +5250,7 @@
       </c>
       <c r="Z11" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA11" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -5242,18 +5262,18 @@
       </c>
       <c r="AC11" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AD11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE11" s="15">
         <f t="shared" ca="1" si="26"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AF11" s="15">
         <f t="shared" ca="1" si="27"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AG11" s="15">
         <f t="shared" si="28"/>
@@ -5261,7 +5281,7 @@
       </c>
       <c r="AH11" s="16">
         <f t="shared" ca="1" si="29"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AI11" s="16">
         <f t="shared" ca="1" si="30"/>
@@ -5273,21 +5293,21 @@
       </c>
       <c r="AK11" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM11" s="15">
         <f t="shared" ca="1" si="33"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AN11" s="15">
         <f t="shared" ca="1" si="34"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5344,14 +5364,14 @@
       <c r="AM12" s="15"/>
       <c r="AN12" s="15"/>
     </row>
-    <row r="13" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -5363,18 +5383,18 @@
       </c>
       <c r="E13" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="7"/>
@@ -5382,30 +5402,30 @@
       </c>
       <c r="J13" s="16">
         <f t="shared" ref="J13:J22" ca="1" si="35">IF(K13,O13,M13*O13)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K13" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="M13" s="16">
         <f t="shared" ref="M13:M22" ca="1" si="36">RANDBETWEEN(1,I13)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" ref="O13:O22" ca="1" si="37">RANDBETWEEN(1,I13)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P13" s="15">
         <f t="shared" ref="P13:P22" ca="1" si="38">IF(K13,M13*O13,O13)</f>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="15">
         <f t="shared" si="14"/>
@@ -5413,7 +5433,7 @@
       </c>
       <c r="R13" s="16">
         <f t="shared" ref="R13:R22" ca="1" si="39">IF(S13,W13,U13*W13)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S13" s="16">
         <f t="shared" ca="1" si="16"/>
@@ -5425,18 +5445,18 @@
       </c>
       <c r="U13" s="16">
         <f t="shared" ref="U13:U22" ca="1" si="40">RANDBETWEEN(1,Q13)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W13" s="15">
         <f t="shared" ref="W13:W22" ca="1" si="41">RANDBETWEEN(1,Q13)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X13" s="15">
         <f t="shared" ref="X13:X22" ca="1" si="42">IF(S13,U13*W13,W13)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Y13" s="15">
         <f t="shared" si="21"/>
@@ -5444,30 +5464,30 @@
       </c>
       <c r="Z13" s="16">
         <f t="shared" ref="Z13:Z22" ca="1" si="43">IF(AA13,AE13,AC13*AE13)</f>
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="AC13" s="16">
         <f t="shared" ref="AC13:AC22" ca="1" si="44">RANDBETWEEN(1,Y13)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AD13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE13" s="15">
         <f t="shared" ref="AE13:AE22" ca="1" si="45">RANDBETWEEN(1,Y13)</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="15">
         <f t="shared" ref="AF13:AF22" ca="1" si="46">IF(AA13,AC13*AE13,AE13)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AG13" s="15">
         <f t="shared" si="28"/>
@@ -5475,7 +5495,7 @@
       </c>
       <c r="AH13" s="16">
         <f t="shared" ref="AH13:AH22" ca="1" si="47">IF(AI13,AM13,AK13*AM13)</f>
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="AI13" s="16">
         <f t="shared" ca="1" si="30"/>
@@ -5487,51 +5507,51 @@
       </c>
       <c r="AK13" s="16">
         <f t="shared" ref="AK13:AK22" ca="1" si="48">RANDBETWEEN(1,AG13)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM13" s="15">
         <f t="shared" ref="AM13:AM22" ca="1" si="49">RANDBETWEEN(1,AG13)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AN13" s="15">
         <f t="shared" ref="AN13:AN22" ca="1" si="50">IF(AI13,AK13*AM13,AM13)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C14" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="7"/>
@@ -5539,30 +5559,30 @@
       </c>
       <c r="J14" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="K14" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="M14" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" ca="1" si="37"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P14" s="15">
         <f t="shared" ca="1" si="38"/>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="15">
         <f t="shared" si="14"/>
@@ -5570,7 +5590,7 @@
       </c>
       <c r="R14" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S14" s="16">
         <f t="shared" ca="1" si="16"/>
@@ -5582,18 +5602,18 @@
       </c>
       <c r="U14" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W14" s="15">
         <f t="shared" ca="1" si="41"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X14" s="15">
         <f t="shared" ca="1" si="42"/>
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="Y14" s="15">
         <f t="shared" si="21"/>
@@ -5601,30 +5621,30 @@
       </c>
       <c r="Z14" s="16">
         <f t="shared" ca="1" si="43"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AA14" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="AC14" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE14" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AF14" s="15">
         <f t="shared" ca="1" si="46"/>
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="AG14" s="15">
         <f t="shared" si="28"/>
@@ -5632,40 +5652,40 @@
       </c>
       <c r="AH14" s="16">
         <f t="shared" ca="1" si="47"/>
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="AI14" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="17" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AK14" s="16">
         <f t="shared" ca="1" si="48"/>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AL14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM14" s="15">
         <f t="shared" ca="1" si="49"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AN14" s="15">
         <f t="shared" ca="1" si="50"/>
-        <v>312</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -5677,18 +5697,18 @@
       </c>
       <c r="E15" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="7"/>
@@ -5696,30 +5716,30 @@
       </c>
       <c r="J15" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K15" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="M15" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" ca="1" si="37"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P15" s="15">
         <f t="shared" ca="1" si="38"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="15">
         <f t="shared" si="14"/>
@@ -5727,30 +5747,30 @@
       </c>
       <c r="R15" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S15" s="16">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="U15" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W15" s="15">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X15" s="15">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="Y15" s="15">
         <f t="shared" si="21"/>
@@ -5758,30 +5778,30 @@
       </c>
       <c r="Z15" s="16">
         <f t="shared" ca="1" si="43"/>
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="AA15" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AC15" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AD15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE15" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF15" s="15">
         <f t="shared" ca="1" si="46"/>
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="AG15" s="15">
         <f t="shared" si="28"/>
@@ -5789,7 +5809,7 @@
       </c>
       <c r="AH15" s="16">
         <f t="shared" ca="1" si="47"/>
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="AI15" s="16">
         <f t="shared" ca="1" si="30"/>
@@ -5801,28 +5821,28 @@
       </c>
       <c r="AK15" s="16">
         <f t="shared" ca="1" si="48"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AL15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM15" s="15">
         <f t="shared" ca="1" si="49"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AN15" s="15">
         <f t="shared" ca="1" si="50"/>
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -5834,18 +5854,18 @@
       </c>
       <c r="E16" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="7"/>
@@ -5853,7 +5873,7 @@
       </c>
       <c r="J16" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="K16" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -5865,18 +5885,18 @@
       </c>
       <c r="M16" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" ca="1" si="37"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P16" s="15">
         <f t="shared" ca="1" si="38"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="15">
         <f t="shared" si="14"/>
@@ -5884,7 +5904,7 @@
       </c>
       <c r="R16" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S16" s="16">
         <f t="shared" ca="1" si="16"/>
@@ -5896,18 +5916,18 @@
       </c>
       <c r="U16" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W16" s="15">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X16" s="15">
         <f t="shared" ca="1" si="42"/>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="Y16" s="15">
         <f t="shared" si="21"/>
@@ -5915,30 +5935,30 @@
       </c>
       <c r="Z16" s="16">
         <f t="shared" ca="1" si="43"/>
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="AA16" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="AC16" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AD16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE16" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" ca="1" si="46"/>
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="AG16" s="15">
         <f t="shared" si="28"/>
@@ -5946,63 +5966,63 @@
       </c>
       <c r="AH16" s="16">
         <f t="shared" ca="1" si="47"/>
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="AI16" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="17" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AK16" s="16">
         <f t="shared" ca="1" si="48"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AL16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM16" s="15">
         <f t="shared" ca="1" si="49"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN16" s="15">
         <f t="shared" ca="1" si="50"/>
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="E17" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H17" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I17" s="15">
         <f t="shared" si="7"/>
@@ -6010,7 +6030,7 @@
       </c>
       <c r="J17" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="K17" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -6022,18 +6042,18 @@
       </c>
       <c r="M17" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O17" s="15">
         <f t="shared" ca="1" si="37"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P17" s="15">
         <f t="shared" ca="1" si="38"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="15">
         <f t="shared" si="14"/>
@@ -6041,7 +6061,7 @@
       </c>
       <c r="R17" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S17" s="16">
         <f t="shared" ca="1" si="16"/>
@@ -6053,18 +6073,18 @@
       </c>
       <c r="U17" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W17" s="15">
         <f t="shared" ca="1" si="41"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X17" s="15">
         <f t="shared" ca="1" si="42"/>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="Y17" s="15">
         <f t="shared" si="21"/>
@@ -6072,7 +6092,7 @@
       </c>
       <c r="Z17" s="16">
         <f t="shared" ca="1" si="43"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA17" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -6084,18 +6104,18 @@
       </c>
       <c r="AC17" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE17" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AF17" s="15">
         <f t="shared" ca="1" si="46"/>
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AG17" s="15">
         <f t="shared" si="28"/>
@@ -6103,63 +6123,63 @@
       </c>
       <c r="AH17" s="16">
         <f t="shared" ca="1" si="47"/>
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="AI17" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="17" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AK17" s="16">
         <f t="shared" ca="1" si="48"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM17" s="15">
         <f t="shared" ca="1" si="49"/>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AN17" s="15">
         <f t="shared" ca="1" si="50"/>
-        <v>270</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="7"/>
@@ -6167,7 +6187,7 @@
       </c>
       <c r="J18" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K18" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -6179,18 +6199,18 @@
       </c>
       <c r="M18" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N18" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O18" s="15">
         <f t="shared" ca="1" si="37"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P18" s="15">
         <f t="shared" ca="1" si="38"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="15">
         <f t="shared" si="14"/>
@@ -6198,7 +6218,7 @@
       </c>
       <c r="R18" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S18" s="16">
         <f t="shared" ca="1" si="16"/>
@@ -6210,18 +6230,18 @@
       </c>
       <c r="U18" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V18" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W18" s="15">
         <f t="shared" ca="1" si="41"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X18" s="15">
         <f t="shared" ca="1" si="42"/>
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="Y18" s="15">
         <f t="shared" si="21"/>
@@ -6229,30 +6249,30 @@
       </c>
       <c r="Z18" s="16">
         <f t="shared" ca="1" si="43"/>
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="AA18" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="AC18" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD18" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE18" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AF18" s="15">
         <f t="shared" ca="1" si="46"/>
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="AG18" s="15">
         <f t="shared" si="28"/>
@@ -6260,7 +6280,7 @@
       </c>
       <c r="AH18" s="16">
         <f t="shared" ca="1" si="47"/>
-        <v>132</v>
+        <v>390</v>
       </c>
       <c r="AI18" s="16">
         <f t="shared" ca="1" si="30"/>
@@ -6272,21 +6292,21 @@
       </c>
       <c r="AK18" s="16">
         <f t="shared" ca="1" si="48"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AL18" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM18" s="15">
         <f t="shared" ca="1" si="49"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN18" s="15">
         <f t="shared" ca="1" si="50"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6305,7 +6325,7 @@
       </c>
       <c r="E19" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>7</v>
@@ -6316,7 +6336,7 @@
       </c>
       <c r="H19" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="7"/>
@@ -6324,30 +6344,30 @@
       </c>
       <c r="J19" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K19" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="M19" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O19" s="15">
         <f t="shared" ca="1" si="37"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P19" s="15">
         <f t="shared" ca="1" si="38"/>
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="15">
         <f t="shared" si="14"/>
@@ -6359,26 +6379,26 @@
       </c>
       <c r="S19" s="16">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="U19" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W19" s="15">
         <f t="shared" ca="1" si="41"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X19" s="15">
         <f t="shared" ca="1" si="42"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Y19" s="15">
         <f t="shared" si="21"/>
@@ -6386,30 +6406,30 @@
       </c>
       <c r="Z19" s="16">
         <f t="shared" ca="1" si="43"/>
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="AA19" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AC19" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE19" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF19" s="15">
         <f t="shared" ca="1" si="46"/>
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="AG19" s="15">
         <f t="shared" si="28"/>
@@ -6417,7 +6437,7 @@
       </c>
       <c r="AH19" s="16">
         <f t="shared" ca="1" si="47"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI19" s="16">
         <f t="shared" ca="1" si="30"/>
@@ -6429,28 +6449,28 @@
       </c>
       <c r="AK19" s="16">
         <f t="shared" ca="1" si="48"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AL19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM19" s="15">
         <f t="shared" ca="1" si="49"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AN19" s="15">
         <f t="shared" ca="1" si="50"/>
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B20" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C20" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -6469,11 +6489,11 @@
       </c>
       <c r="G20" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="7"/>
@@ -6481,7 +6501,7 @@
       </c>
       <c r="J20" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -6493,18 +6513,18 @@
       </c>
       <c r="M20" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N20" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" ca="1" si="37"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P20" s="15">
         <f t="shared" ca="1" si="38"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="15">
         <f t="shared" si="14"/>
@@ -6512,7 +6532,7 @@
       </c>
       <c r="R20" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S20" s="16">
         <f t="shared" ca="1" si="16"/>
@@ -6524,18 +6544,18 @@
       </c>
       <c r="U20" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V20" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W20" s="15">
         <f t="shared" ca="1" si="41"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X20" s="15">
         <f t="shared" ca="1" si="42"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="15">
         <f t="shared" si="21"/>
@@ -6543,30 +6563,30 @@
       </c>
       <c r="Z20" s="16">
         <f t="shared" ca="1" si="43"/>
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="AA20" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AC20" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AD20" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE20" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF20" s="15">
         <f t="shared" ca="1" si="46"/>
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="AG20" s="15">
         <f t="shared" si="28"/>
@@ -6574,7 +6594,7 @@
       </c>
       <c r="AH20" s="16">
         <f t="shared" ca="1" si="47"/>
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="AI20" s="16">
         <f t="shared" ca="1" si="30"/>
@@ -6586,28 +6606,28 @@
       </c>
       <c r="AK20" s="16">
         <f t="shared" ca="1" si="48"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AL20" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM20" s="15">
         <f t="shared" ca="1" si="49"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AN20" s="15">
         <f t="shared" ca="1" si="50"/>
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B21" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C21" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -6619,18 +6639,18 @@
       </c>
       <c r="E21" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="7"/>
@@ -6638,30 +6658,30 @@
       </c>
       <c r="J21" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K21" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>÷</v>
+        <v>×</v>
       </c>
       <c r="M21" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N21" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O21" s="15">
         <f t="shared" ca="1" si="37"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P21" s="15">
         <f t="shared" ca="1" si="38"/>
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="Q21" s="15">
         <f t="shared" si="14"/>
@@ -6669,7 +6689,7 @@
       </c>
       <c r="R21" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="S21" s="16">
         <f t="shared" ca="1" si="16"/>
@@ -6681,18 +6701,18 @@
       </c>
       <c r="U21" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V21" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W21" s="15">
         <f t="shared" ca="1" si="41"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X21" s="15">
         <f t="shared" ca="1" si="42"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y21" s="15">
         <f t="shared" si="21"/>
@@ -6700,7 +6720,7 @@
       </c>
       <c r="Z21" s="16">
         <f t="shared" ca="1" si="43"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA21" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -6712,18 +6732,18 @@
       </c>
       <c r="AC21" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AD21" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE21" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF21" s="15">
         <f t="shared" ca="1" si="46"/>
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="AG21" s="15">
         <f t="shared" si="28"/>
@@ -6731,40 +6751,40 @@
       </c>
       <c r="AH21" s="16">
         <f t="shared" ca="1" si="47"/>
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AI21" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="17" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="AK21" s="16">
         <f t="shared" ca="1" si="48"/>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AL21" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM21" s="15">
         <f t="shared" ca="1" si="49"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AN21" s="15">
         <f t="shared" ca="1" si="50"/>
-        <v>231</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:40" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B22" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="16">
         <f t="shared" ca="1" si="2"/>
@@ -6776,18 +6796,18 @@
       </c>
       <c r="E22" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="7"/>
@@ -6795,7 +6815,7 @@
       </c>
       <c r="J22" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K22" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -6807,18 +6827,18 @@
       </c>
       <c r="M22" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O22" s="15">
         <f t="shared" ca="1" si="37"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P22" s="15">
         <f t="shared" ca="1" si="38"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="15">
         <f t="shared" si="14"/>
@@ -6826,30 +6846,30 @@
       </c>
       <c r="R22" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S22" s="16">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="17" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>×</v>
+        <v>÷</v>
       </c>
       <c r="U22" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V22" s="18" t="s">
         <v>7</v>
       </c>
       <c r="W22" s="15">
         <f t="shared" ca="1" si="41"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X22" s="15">
         <f t="shared" ca="1" si="42"/>
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="15">
         <f t="shared" si="21"/>
@@ -6857,7 +6877,7 @@
       </c>
       <c r="Z22" s="16">
         <f t="shared" ca="1" si="43"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA22" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -6869,18 +6889,18 @@
       </c>
       <c r="AC22" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AD22" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AE22" s="15">
         <f t="shared" ca="1" si="45"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AF22" s="15">
         <f t="shared" ca="1" si="46"/>
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="AG22" s="15">
         <f t="shared" si="28"/>
@@ -6888,7 +6908,7 @@
       </c>
       <c r="AH22" s="16">
         <f t="shared" ca="1" si="47"/>
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="AI22" s="16">
         <f t="shared" ca="1" si="30"/>
@@ -6900,18 +6920,18 @@
       </c>
       <c r="AK22" s="16">
         <f t="shared" ca="1" si="48"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AL22" s="18" t="s">
         <v>7</v>
       </c>
       <c r="AM22" s="15">
         <f t="shared" ca="1" si="49"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AN22" s="15">
         <f t="shared" ca="1" si="50"/>
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6919,4 +6939,812 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="16"/>
+    <col min="8" max="8" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="16" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="11" width="5.875" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <f ca="1">RANDBETWEEN(10,99)</f>
+        <v>73</v>
+      </c>
+      <c r="B2" s="17" t="str">
+        <f t="shared" ref="B2:B21" ca="1" si="0">IF(A2,"×","÷")</f>
+        <v>×</v>
+      </c>
+      <c r="C2" s="16">
+        <f t="shared" ref="C2:C21" ca="1" si="1">RANDBETWEEN(10,99)</f>
+        <v>60</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15">
+        <f ca="1">A2*C2</f>
+        <v>4380</v>
+      </c>
+      <c r="G2" s="16">
+        <f ca="1">I2*K2</f>
+        <v>485</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="16">
+        <f ca="1">RANDBETWEEN(1,9)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="15">
+        <f ca="1">RANDBETWEEN(100,999)</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <f t="shared" ref="A3:A21" ca="1" si="2">RANDBETWEEN(10,99)</f>
+        <v>15</v>
+      </c>
+      <c r="B3" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C3" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15">
+        <f ca="1">A3*C3</f>
+        <v>720</v>
+      </c>
+      <c r="G3" s="16">
+        <f t="shared" ref="G3:G21" ca="1" si="3">I3*K3</f>
+        <v>3056</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="16">
+        <f t="shared" ref="I3:I21" ca="1" si="4">RANDBETWEEN(1,9)</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="15">
+        <f t="shared" ref="K3:K21" ca="1" si="5">RANDBETWEEN(100,999)</f>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B4" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C4" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="15">
+        <f ca="1">A4*C4</f>
+        <v>5850</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1528</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15">
+        <f ca="1">A5*C5</f>
+        <v>1040</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>7929</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B6" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15">
+        <f ca="1">A6*C6</f>
+        <v>7120</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>4298</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B7" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="15">
+        <f ca="1">A7*C7</f>
+        <v>3366</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>846</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B8" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15">
+        <f ca="1">A8*C8</f>
+        <v>2450</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="15">
+        <f ca="1">A9*C9</f>
+        <v>308</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>5778</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B10" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="15">
+        <f ca="1">A10*C10</f>
+        <v>351</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1488</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B11" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15">
+        <f ca="1">A11*C11</f>
+        <v>975</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>5292</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B12" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="15">
+        <f ca="1">A12*C12</f>
+        <v>2448</v>
+      </c>
+      <c r="G12" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>2910</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B13" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="15">
+        <f ca="1">A13*C13</f>
+        <v>2343</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>7740</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B14" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="15">
+        <f ca="1">A14*C14</f>
+        <v>6240</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1652</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B15" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="15">
+        <f ca="1">A15*C15</f>
+        <v>2688</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>5016</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B16" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15">
+        <f ca="1">A16*C16</f>
+        <v>3136</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B17" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="15">
+        <f ca="1">A17*C17</f>
+        <v>6175</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>942</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B18" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C18" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15">
+        <f ca="1">A18*C18</f>
+        <v>6208</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B19" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="15">
+        <f ca="1">A19*C19</f>
+        <v>6384</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>472</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B20" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C20" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="15">
+        <f ca="1">A20*C20</f>
+        <v>2365</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>2364</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B21" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C21" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="15">
+        <f ca="1">A21*C21</f>
+        <v>1325</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>6632</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>829</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>